--- a/data_cal/v4Plus/adi_v3_1ADC_cal_ges_test.xlsx
+++ b/data_cal/v4Plus/adi_v3_1ADC_cal_ges_test.xlsx
@@ -460,16 +460,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>5.299999999999955</v>
+        <v>9.870000000000005</v>
       </c>
       <c r="D2" t="n">
-        <v>33.85000000000002</v>
+        <v>26.87</v>
       </c>
       <c r="E2" t="n">
-        <v>20.73000000000002</v>
+        <v>-0.9499999999999886</v>
       </c>
       <c r="F2" t="n">
-        <v>66.01999999999998</v>
+        <v>7.319999999999993</v>
       </c>
     </row>
     <row r="3">
@@ -480,16 +480,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>55.88</v>
+        <v>36.78000000000003</v>
       </c>
       <c r="D3" t="n">
-        <v>43.49000000000001</v>
+        <v>30.70999999999998</v>
       </c>
       <c r="E3" t="n">
-        <v>39.03000000000003</v>
+        <v>27.27000000000004</v>
       </c>
       <c r="F3" t="n">
-        <v>13.68000000000001</v>
+        <v>-9.75</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>14.87</v>
+        <v>-7.519999999999982</v>
       </c>
       <c r="D4" t="n">
-        <v>9.54000000000002</v>
+        <v>-8.060000000000002</v>
       </c>
       <c r="E4" t="n">
-        <v>16.15000000000003</v>
+        <v>-3.399999999999977</v>
       </c>
       <c r="F4" t="n">
-        <v>-21.56999999999999</v>
+        <v>-21.43000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -520,16 +520,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>39.63</v>
+        <v>17.62</v>
       </c>
       <c r="D5" t="n">
-        <v>30.06999999999999</v>
+        <v>0.8499999999999659</v>
       </c>
       <c r="E5" t="n">
-        <v>10.84000000000003</v>
+        <v>-10.87</v>
       </c>
       <c r="F5" t="n">
-        <v>-9.020000000000039</v>
+        <v>-48.44</v>
       </c>
     </row>
     <row r="6">
@@ -540,16 +540,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>15.97999999999996</v>
+        <v>-2.339999999999975</v>
       </c>
       <c r="D6" t="n">
-        <v>14.14000000000004</v>
+        <v>-11.13</v>
       </c>
       <c r="E6" t="n">
-        <v>6.310000000000002</v>
+        <v>-8.45999999999998</v>
       </c>
       <c r="F6" t="n">
-        <v>-19.75999999999999</v>
+        <v>-35.81999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -560,16 +560,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>19.57999999999998</v>
+        <v>4.819999999999993</v>
       </c>
       <c r="D7" t="n">
-        <v>10.99000000000001</v>
+        <v>-1.330000000000041</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.399999999999977</v>
+        <v>2.460000000000036</v>
       </c>
       <c r="F7" t="n">
-        <v>-31.12</v>
+        <v>-40.77000000000004</v>
       </c>
     </row>
     <row r="8">
@@ -580,16 +580,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>9.5</v>
+        <v>-3.240000000000009</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.060000000000002</v>
+        <v>-5.950000000000045</v>
       </c>
       <c r="E8" t="n">
-        <v>-5.889999999999986</v>
+        <v>0.5800000000000409</v>
       </c>
       <c r="F8" t="n">
-        <v>-42.69</v>
+        <v>-50.30000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -600,16 +600,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9199999999999591</v>
+        <v>-7.449999999999989</v>
       </c>
       <c r="D9" t="n">
-        <v>30.60000000000002</v>
+        <v>13.69</v>
       </c>
       <c r="E9" t="n">
-        <v>30.67000000000002</v>
+        <v>-14.63999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>41.84999999999997</v>
+        <v>-24.14000000000004</v>
       </c>
     </row>
     <row r="10">
@@ -620,16 +620,16 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>50.22999999999996</v>
+        <v>14.06</v>
       </c>
       <c r="D10" t="n">
-        <v>54.33000000000004</v>
+        <v>10.43000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>31.86000000000001</v>
+        <v>4.970000000000027</v>
       </c>
       <c r="F10" t="n">
-        <v>11.06999999999999</v>
+        <v>-40.58000000000004</v>
       </c>
     </row>
     <row r="11">
@@ -640,16 +640,16 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>3.099999999999966</v>
+        <v>-9.21999999999997</v>
       </c>
       <c r="D11" t="n">
-        <v>5.629999999999995</v>
+        <v>-9.270000000000039</v>
       </c>
       <c r="E11" t="n">
-        <v>7.510000000000048</v>
+        <v>-8.509999999999991</v>
       </c>
       <c r="F11" t="n">
-        <v>-31.5</v>
+        <v>-34.10000000000002</v>
       </c>
     </row>
     <row r="12">
@@ -660,16 +660,16 @@
         <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>41.58999999999997</v>
+        <v>23.81999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>22.16000000000003</v>
+        <v>-5.620000000000005</v>
       </c>
       <c r="E12" t="n">
-        <v>2.850000000000023</v>
+        <v>-18.58999999999997</v>
       </c>
       <c r="F12" t="n">
-        <v>-23.56</v>
+        <v>-61.28000000000003</v>
       </c>
     </row>
     <row r="13">
@@ -680,16 +680,16 @@
         <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>6.359999999999957</v>
+        <v>4.550000000000011</v>
       </c>
       <c r="D13" t="n">
-        <v>5.910000000000025</v>
+        <v>-7.120000000000005</v>
       </c>
       <c r="E13" t="n">
-        <v>-3.589999999999975</v>
+        <v>-5.759999999999991</v>
       </c>
       <c r="F13" t="n">
-        <v>-32.21000000000004</v>
+        <v>-39.48000000000002</v>
       </c>
     </row>
     <row r="14">
@@ -700,16 +700,16 @@
         <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>5.45999999999998</v>
+        <v>2.560000000000002</v>
       </c>
       <c r="D14" t="n">
-        <v>8.509999999999991</v>
+        <v>-7.840000000000032</v>
       </c>
       <c r="E14" t="n">
-        <v>-8.109999999999957</v>
+        <v>-2.479999999999961</v>
       </c>
       <c r="F14" t="n">
-        <v>-25.74000000000001</v>
+        <v>-51.97000000000003</v>
       </c>
     </row>
     <row r="15">
@@ -720,16 +720,16 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>-7.069999999999993</v>
+        <v>-7.639999999999986</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.060000000000002</v>
+        <v>-14.58000000000004</v>
       </c>
       <c r="E15" t="n">
-        <v>-13.69999999999999</v>
+        <v>-2.529999999999973</v>
       </c>
       <c r="F15" t="n">
-        <v>-43.60000000000002</v>
+        <v>-57.24000000000001</v>
       </c>
     </row>
     <row r="16">
@@ -740,16 +740,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>4.649999999999977</v>
+        <v>-9.089999999999975</v>
       </c>
       <c r="D16" t="n">
-        <v>30.97000000000003</v>
+        <v>8.75</v>
       </c>
       <c r="E16" t="n">
-        <v>24.53000000000003</v>
+        <v>-16.88</v>
       </c>
       <c r="F16" t="n">
-        <v>27.38999999999999</v>
+        <v>-33.04000000000002</v>
       </c>
     </row>
     <row r="17">
@@ -760,16 +760,16 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>30.58999999999997</v>
+        <v>12.94999999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>36.92000000000002</v>
+        <v>8.870000000000005</v>
       </c>
       <c r="E17" t="n">
-        <v>25.47000000000003</v>
+        <v>2.79000000000002</v>
       </c>
       <c r="F17" t="n">
-        <v>4.289999999999964</v>
+        <v>-47.38</v>
       </c>
     </row>
     <row r="18">
@@ -780,16 +780,16 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0.839999999999975</v>
+        <v>-23.02999999999997</v>
       </c>
       <c r="D18" t="n">
-        <v>6.449999999999989</v>
+        <v>-22.72000000000003</v>
       </c>
       <c r="E18" t="n">
-        <v>10.90000000000003</v>
+        <v>-21.57999999999998</v>
       </c>
       <c r="F18" t="n">
-        <v>-34.43000000000001</v>
+        <v>-51.23000000000002</v>
       </c>
     </row>
     <row r="19">
@@ -800,16 +800,16 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>31.39999999999998</v>
+        <v>21.31</v>
       </c>
       <c r="D19" t="n">
-        <v>32.49000000000001</v>
+        <v>-2.470000000000027</v>
       </c>
       <c r="E19" t="n">
-        <v>20.02000000000004</v>
+        <v>-13.50999999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>-6.970000000000027</v>
+        <v>-60.81</v>
       </c>
     </row>
     <row r="20">
@@ -820,16 +820,16 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>8.009999999999991</v>
+        <v>7.769999999999982</v>
       </c>
       <c r="D20" t="n">
-        <v>10.30000000000001</v>
+        <v>-1.100000000000023</v>
       </c>
       <c r="E20" t="n">
-        <v>4.5</v>
+        <v>-2.370000000000005</v>
       </c>
       <c r="F20" t="n">
-        <v>-28.74000000000001</v>
+        <v>-32.70000000000005</v>
       </c>
     </row>
     <row r="21">
@@ -840,16 +840,16 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>11</v>
+        <v>3.490000000000009</v>
       </c>
       <c r="D21" t="n">
-        <v>15.91000000000003</v>
+        <v>-7.890000000000043</v>
       </c>
       <c r="E21" t="n">
-        <v>-1.919999999999959</v>
+        <v>-6.819999999999993</v>
       </c>
       <c r="F21" t="n">
-        <v>-24.09000000000003</v>
+        <v>-51.97000000000003</v>
       </c>
     </row>
     <row r="22">
@@ -860,16 +860,16 @@
         <v>6</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.480000000000018</v>
+        <v>-5.680000000000007</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.990000000000009</v>
+        <v>-13.35000000000002</v>
       </c>
       <c r="E22" t="n">
-        <v>-9.859999999999957</v>
+        <v>-2.039999999999964</v>
       </c>
       <c r="F22" t="n">
-        <v>-44.75</v>
+        <v>-59.09000000000003</v>
       </c>
     </row>
     <row r="23">
@@ -880,16 +880,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>1.240000000000009</v>
+        <v>-1.430000000000007</v>
       </c>
       <c r="D23" t="n">
-        <v>30</v>
+        <v>7.269999999999982</v>
       </c>
       <c r="E23" t="n">
-        <v>18.46000000000004</v>
+        <v>-10.87</v>
       </c>
       <c r="F23" t="n">
-        <v>9.319999999999993</v>
+        <v>-33.04000000000002</v>
       </c>
     </row>
     <row r="24">
@@ -900,16 +900,16 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>32.29999999999995</v>
+        <v>23.60000000000002</v>
       </c>
       <c r="D24" t="n">
-        <v>35.77000000000004</v>
+        <v>18.62</v>
       </c>
       <c r="E24" t="n">
-        <v>7.04000000000002</v>
+        <v>6.720000000000027</v>
       </c>
       <c r="F24" t="n">
-        <v>-12.30000000000001</v>
+        <v>-39.99000000000001</v>
       </c>
     </row>
     <row r="25">
@@ -920,16 +920,16 @@
         <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>1.079999999999984</v>
+        <v>-3.819999999999993</v>
       </c>
       <c r="D25" t="n">
-        <v>4.890000000000043</v>
+        <v>-6.840000000000032</v>
       </c>
       <c r="E25" t="n">
-        <v>8.800000000000011</v>
+        <v>-7.029999999999973</v>
       </c>
       <c r="F25" t="n">
-        <v>-37.69</v>
+        <v>-35.81999999999999</v>
       </c>
     </row>
     <row r="26">
@@ -940,16 +940,16 @@
         <v>3</v>
       </c>
       <c r="C26" t="n">
-        <v>35.01999999999998</v>
+        <v>46.45999999999998</v>
       </c>
       <c r="D26" t="n">
-        <v>25.60000000000002</v>
+        <v>13.81999999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>10.97000000000003</v>
+        <v>-4.46999999999997</v>
       </c>
       <c r="F26" t="n">
-        <v>-21.23000000000002</v>
+        <v>-48.06</v>
       </c>
     </row>
     <row r="27">
@@ -960,16 +960,16 @@
         <v>4</v>
       </c>
       <c r="C27" t="n">
-        <v>4.729999999999961</v>
+        <v>14.13</v>
       </c>
       <c r="D27" t="n">
-        <v>4.350000000000023</v>
+        <v>5.199999999999989</v>
       </c>
       <c r="E27" t="n">
-        <v>1.140000000000043</v>
+        <v>-2.529999999999973</v>
       </c>
       <c r="F27" t="n">
-        <v>-31.75999999999999</v>
+        <v>-27.99000000000001</v>
       </c>
     </row>
     <row r="28">
@@ -980,16 +980,16 @@
         <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>8.339999999999975</v>
+        <v>6.29000000000002</v>
       </c>
       <c r="D28" t="n">
-        <v>17.69</v>
+        <v>-1.390000000000043</v>
       </c>
       <c r="E28" t="n">
-        <v>-4.810000000000002</v>
+        <v>-4.039999999999964</v>
       </c>
       <c r="F28" t="n">
-        <v>-29.06</v>
+        <v>-52.70000000000005</v>
       </c>
     </row>
     <row r="29">
@@ -1000,16 +1000,16 @@
         <v>6</v>
       </c>
       <c r="C29" t="n">
-        <v>2.20999999999998</v>
+        <v>1.639999999999986</v>
       </c>
       <c r="D29" t="n">
-        <v>-2.189999999999998</v>
+        <v>-4.050000000000011</v>
       </c>
       <c r="E29" t="n">
-        <v>-7.669999999999959</v>
+        <v>1.300000000000011</v>
       </c>
       <c r="F29" t="n">
-        <v>-42.00999999999999</v>
+        <v>-55.56</v>
       </c>
     </row>
     <row r="30">
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>-26.63</v>
+        <v>0.4599999999999795</v>
       </c>
       <c r="D30" t="n">
-        <v>-1.129999999999995</v>
+        <v>9.169999999999959</v>
       </c>
       <c r="E30" t="n">
-        <v>-5.069999999999993</v>
+        <v>-10.65999999999997</v>
       </c>
       <c r="F30" t="n">
-        <v>-19.15000000000003</v>
+        <v>-33.83000000000004</v>
       </c>
     </row>
     <row r="31">
@@ -1040,16 +1040,16 @@
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>28.52999999999997</v>
+        <v>22.74000000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>45.31999999999999</v>
+        <v>17.38</v>
       </c>
       <c r="E31" t="n">
-        <v>15.04000000000002</v>
+        <v>8.700000000000045</v>
       </c>
       <c r="F31" t="n">
-        <v>-26.46000000000004</v>
+        <v>-45.17000000000002</v>
       </c>
     </row>
     <row r="32">
@@ -1060,16 +1060,16 @@
         <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.6800000000000068</v>
+        <v>-8.96999999999997</v>
       </c>
       <c r="D32" t="n">
-        <v>2.860000000000014</v>
+        <v>-10.58000000000004</v>
       </c>
       <c r="E32" t="n">
-        <v>1.140000000000043</v>
+        <v>-9.139999999999986</v>
       </c>
       <c r="F32" t="n">
-        <v>-42.81</v>
+        <v>-37.98000000000002</v>
       </c>
     </row>
     <row r="33">
@@ -1080,16 +1080,16 @@
         <v>3</v>
       </c>
       <c r="C33" t="n">
-        <v>20.78999999999996</v>
+        <v>32.70999999999998</v>
       </c>
       <c r="D33" t="n">
-        <v>17.19</v>
+        <v>5.139999999999986</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9399999999999977</v>
+        <v>-13.04999999999995</v>
       </c>
       <c r="F33" t="n">
-        <v>-29.31999999999999</v>
+        <v>-59.75</v>
       </c>
     </row>
     <row r="34">
@@ -1100,16 +1100,16 @@
         <v>4</v>
       </c>
       <c r="C34" t="n">
-        <v>3.430000000000007</v>
+        <v>7.03000000000003</v>
       </c>
       <c r="D34" t="n">
-        <v>4.350000000000023</v>
+        <v>-2.010000000000048</v>
       </c>
       <c r="E34" t="n">
-        <v>-3.019999999999982</v>
+        <v>-8.039999999999964</v>
       </c>
       <c r="F34" t="n">
-        <v>-35.88</v>
+        <v>-37.92000000000002</v>
       </c>
     </row>
     <row r="35">
@@ -1120,16 +1120,16 @@
         <v>5</v>
       </c>
       <c r="C35" t="n">
-        <v>-3.379999999999995</v>
+        <v>-0.7799999999999727</v>
       </c>
       <c r="D35" t="n">
-        <v>2.060000000000002</v>
+        <v>-9.710000000000036</v>
       </c>
       <c r="E35" t="n">
-        <v>-9.669999999999959</v>
+        <v>-7.45999999999998</v>
       </c>
       <c r="F35" t="n">
-        <v>-43.42000000000002</v>
+        <v>-59.27000000000004</v>
       </c>
     </row>
     <row r="36">
@@ -1140,16 +1140,16 @@
         <v>6</v>
       </c>
       <c r="C36" t="n">
-        <v>-1.960000000000036</v>
+        <v>-5.29000000000002</v>
       </c>
       <c r="D36" t="n">
-        <v>-9.370000000000005</v>
+        <v>-13.02000000000004</v>
       </c>
       <c r="E36" t="n">
-        <v>-4.549999999999955</v>
+        <v>-1.829999999999984</v>
       </c>
       <c r="F36" t="n">
-        <v>-47.63</v>
+        <v>-60.75</v>
       </c>
     </row>
   </sheetData>
